--- a/data/vocabulary.xlsx
+++ b/data/vocabulary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a798708\Documents\flashcard_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62869EE4-FBA7-40F6-8C62-9D713503B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C2A10-4477-4C79-B175-D8F4D65878B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="34620" windowHeight="14020"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="präposition" sheetId="4" r:id="rId1"/>
@@ -1811,9 +1811,6 @@
     <t>gefallen</t>
   </si>
   <si>
-    <t>compezar</t>
-  </si>
-  <si>
     <t>anfangen</t>
   </si>
   <si>
@@ -3663,11 +3660,14 @@
   <si>
     <t>die Wärme / Hitze</t>
   </si>
+  <si>
+    <t>comenzar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4530,10 +4530,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
@@ -4698,86 +4698,86 @@
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>770</v>
-      </c>
-      <c r="C17" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>771</v>
+      </c>
+      <c r="B18" t="s">
         <v>772</v>
-      </c>
-      <c r="B18" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>773</v>
+      </c>
+      <c r="B19" t="s">
         <v>774</v>
-      </c>
-      <c r="B19" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>776</v>
+      </c>
+      <c r="B20" t="s">
+        <v>775</v>
+      </c>
+      <c r="C20" t="s">
         <v>777</v>
-      </c>
-      <c r="B20" t="s">
-        <v>776</v>
-      </c>
-      <c r="C20" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" t="s">
         <v>779</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>780</v>
-      </c>
-      <c r="C21" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>781</v>
+      </c>
+      <c r="B22" t="s">
         <v>782</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>783</v>
-      </c>
-      <c r="C22" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>784</v>
+      </c>
+      <c r="B23" t="s">
         <v>785</v>
-      </c>
-      <c r="B23" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" t="s">
         <v>787</v>
-      </c>
-      <c r="B24" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>946</v>
+      </c>
+      <c r="B25" t="s">
         <v>947</v>
-      </c>
-      <c r="B25" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -4790,57 +4790,57 @@
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>987</v>
+      </c>
+      <c r="B27" t="s">
         <v>988</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>989</v>
-      </c>
-      <c r="C27" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B28" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C28" t="s">
         <v>1179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C29" t="s">
         <v>1182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C30" t="s">
         <v>1185</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B31" t="s">
         <v>1202</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>1203</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -4849,11 +4849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5480,7 +5480,7 @@
         <v>504</v>
       </c>
       <c r="C59" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
@@ -5828,205 +5828,205 @@
     </row>
     <row r="98" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B98" t="s">
         <v>594</v>
-      </c>
-      <c r="B98" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>595</v>
+      </c>
+      <c r="B99" t="s">
         <v>596</v>
-      </c>
-      <c r="B99" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>597</v>
+      </c>
+      <c r="B100" t="s">
         <v>598</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>599</v>
-      </c>
-      <c r="C100" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>600</v>
+      </c>
+      <c r="B101" t="s">
         <v>601</v>
-      </c>
-      <c r="B101" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>602</v>
+      </c>
+      <c r="B102" t="s">
         <v>603</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>604</v>
-      </c>
-      <c r="C102" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>605</v>
+      </c>
+      <c r="B103" t="s">
         <v>606</v>
-      </c>
-      <c r="B103" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>607</v>
+      </c>
+      <c r="B104" t="s">
         <v>608</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>609</v>
-      </c>
-      <c r="C104" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>610</v>
+      </c>
+      <c r="B105" t="s">
         <v>611</v>
-      </c>
-      <c r="B105" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>612</v>
+      </c>
+      <c r="B106" t="s">
         <v>613</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>614</v>
-      </c>
-      <c r="C106" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>615</v>
+      </c>
+      <c r="B107" t="s">
         <v>616</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>617</v>
-      </c>
-      <c r="C107" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>618</v>
+      </c>
+      <c r="B108" t="s">
         <v>619</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>620</v>
-      </c>
-      <c r="C108" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>621</v>
+      </c>
+      <c r="B109" t="s">
         <v>622</v>
-      </c>
-      <c r="B109" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>623</v>
+      </c>
+      <c r="B110" t="s">
         <v>624</v>
-      </c>
-      <c r="B110" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B111" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>627</v>
+      </c>
+      <c r="B112" t="s">
         <v>628</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>629</v>
-      </c>
-      <c r="C112" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" t="s">
         <v>631</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>632</v>
-      </c>
-      <c r="C113" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>633</v>
+      </c>
+      <c r="B114" t="s">
         <v>634</v>
-      </c>
-      <c r="B114" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>635</v>
+      </c>
+      <c r="B115" t="s">
         <v>636</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>637</v>
-      </c>
-      <c r="C115" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>638</v>
+      </c>
+      <c r="B116" t="s">
         <v>639</v>
-      </c>
-      <c r="B116" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" t="s">
         <v>641</v>
-      </c>
-      <c r="B117" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>642</v>
+      </c>
+      <c r="B118" t="s">
         <v>643</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>644</v>
-      </c>
-      <c r="C118" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B119" t="s">
         <v>367</v>
@@ -6034,117 +6034,117 @@
     </row>
     <row r="120" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>646</v>
+      </c>
+      <c r="B120" t="s">
         <v>647</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>648</v>
-      </c>
-      <c r="C120" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>649</v>
+      </c>
+      <c r="B121" t="s">
         <v>650</v>
-      </c>
-      <c r="B121" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>651</v>
+      </c>
+      <c r="B122" t="s">
         <v>652</v>
-      </c>
-      <c r="B122" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>653</v>
+      </c>
+      <c r="B123" t="s">
         <v>654</v>
-      </c>
-      <c r="B123" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>655</v>
+      </c>
+      <c r="B124" t="s">
         <v>656</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>657</v>
-      </c>
-      <c r="C124" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>658</v>
+      </c>
+      <c r="B125" t="s">
         <v>659</v>
-      </c>
-      <c r="B125" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>660</v>
+      </c>
+      <c r="B126" t="s">
         <v>661</v>
-      </c>
-      <c r="B126" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>662</v>
+      </c>
+      <c r="B127" t="s">
         <v>663</v>
-      </c>
-      <c r="B127" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
+        <v>664</v>
+      </c>
+      <c r="B128" t="s">
         <v>665</v>
-      </c>
-      <c r="B128" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>666</v>
+      </c>
+      <c r="B129" t="s">
         <v>667</v>
-      </c>
-      <c r="B129" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>668</v>
+      </c>
+      <c r="B130" t="s">
         <v>669</v>
-      </c>
-      <c r="B130" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>670</v>
+      </c>
+      <c r="B131" t="s">
         <v>671</v>
-      </c>
-      <c r="B131" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>672</v>
+      </c>
+      <c r="B132" t="s">
         <v>673</v>
-      </c>
-      <c r="B132" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B133" t="s">
         <v>385</v>
@@ -6152,287 +6152,287 @@
     </row>
     <row r="134" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
+        <v>675</v>
+      </c>
+      <c r="B134" t="s">
         <v>676</v>
-      </c>
-      <c r="B134" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>677</v>
+      </c>
+      <c r="B135" t="s">
         <v>678</v>
-      </c>
-      <c r="B135" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>679</v>
+      </c>
+      <c r="B136" t="s">
         <v>680</v>
-      </c>
-      <c r="B136" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>681</v>
+      </c>
+      <c r="B137" t="s">
         <v>682</v>
-      </c>
-      <c r="B137" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>683</v>
+      </c>
+      <c r="B138" t="s">
         <v>684</v>
-      </c>
-      <c r="B138" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>685</v>
+      </c>
+      <c r="B139" t="s">
         <v>686</v>
-      </c>
-      <c r="B139" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>687</v>
+      </c>
+      <c r="B140" t="s">
         <v>688</v>
-      </c>
-      <c r="B140" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>689</v>
+      </c>
+      <c r="B141" t="s">
         <v>690</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>691</v>
-      </c>
-      <c r="C141" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>692</v>
+      </c>
+      <c r="B142" t="s">
         <v>693</v>
-      </c>
-      <c r="B142" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>694</v>
+      </c>
+      <c r="B143" t="s">
         <v>695</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>696</v>
-      </c>
-      <c r="C143" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>697</v>
+      </c>
+      <c r="B144" t="s">
         <v>698</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>699</v>
-      </c>
-      <c r="C144" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>700</v>
+      </c>
+      <c r="B145" t="s">
         <v>701</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>702</v>
-      </c>
-      <c r="C145" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
+        <v>703</v>
+      </c>
+      <c r="B146" t="s">
         <v>704</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>705</v>
-      </c>
-      <c r="C146" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>706</v>
+      </c>
+      <c r="B147" t="s">
         <v>707</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>708</v>
-      </c>
-      <c r="C147" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>709</v>
+      </c>
+      <c r="B148" t="s">
         <v>710</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>711</v>
-      </c>
-      <c r="C148" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>712</v>
+      </c>
+      <c r="B149" t="s">
         <v>713</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>714</v>
-      </c>
-      <c r="C149" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>716</v>
+      </c>
+      <c r="B150" t="s">
+        <v>715</v>
+      </c>
+      <c r="C150" t="s">
         <v>717</v>
-      </c>
-      <c r="B150" t="s">
-        <v>716</v>
-      </c>
-      <c r="C150" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>718</v>
+      </c>
+      <c r="B151" t="s">
         <v>719</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>720</v>
-      </c>
-      <c r="C151" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>721</v>
+      </c>
+      <c r="B152" t="s">
         <v>722</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>723</v>
-      </c>
-      <c r="C152" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>724</v>
+      </c>
+      <c r="B153" t="s">
         <v>725</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>726</v>
-      </c>
-      <c r="C153" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
+        <v>727</v>
+      </c>
+      <c r="B154" t="s">
+        <v>594</v>
+      </c>
+      <c r="C154" t="s">
         <v>728</v>
-      </c>
-      <c r="B154" t="s">
-        <v>595</v>
-      </c>
-      <c r="C154" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>729</v>
+      </c>
+      <c r="B155" t="s">
         <v>730</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>731</v>
-      </c>
-      <c r="C155" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" t="s">
         <v>733</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>734</v>
-      </c>
-      <c r="C156" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B157" t="s">
         <v>1065</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B158" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B159" t="s">
         <v>1069</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B160" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B161" t="s">
         <v>1077</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B162" t="s">
         <v>1093</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B163" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -6441,7 +6441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView topLeftCell="A178" workbookViewId="0">
@@ -7026,7 +7026,7 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7045,7 +7045,7 @@
         <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7690,157 +7690,157 @@
     </row>
     <row r="154" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B170" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B171" t="s">
+        <v>952</v>
+      </c>
+      <c r="C171" t="s">
         <v>954</v>
-      </c>
-      <c r="B171" t="s">
-        <v>953</v>
-      </c>
-      <c r="C171" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7848,133 +7848,133 @@
         <v>313</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C173" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" t="s">
         <v>1021</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B180" t="s">
         <v>1044</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B185" t="s">
         <v>1101</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B186" t="s">
         <v>1103</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B188" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7983,7 +7983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8010,306 +8010,306 @@
     </row>
     <row r="2" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>859</v>
+      </c>
+      <c r="B5" t="s">
         <v>860</v>
-      </c>
-      <c r="B5" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C12" t="s">
         <v>937</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="C12" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C18" t="s">
         <v>939</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C18" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B31" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>962</v>
+      </c>
+      <c r="B33" t="s">
+        <v>961</v>
+      </c>
+      <c r="C33" t="s">
         <v>963</v>
-      </c>
-      <c r="B33" t="s">
-        <v>962</v>
-      </c>
-      <c r="C33" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>980</v>
+      </c>
+      <c r="B34" t="s">
         <v>981</v>
-      </c>
-      <c r="B34" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C35" t="s">
         <v>1089</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B36" t="s">
         <v>1113</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>1114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8361,595 +8361,595 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B5" t="s">
         <v>792</v>
-      </c>
-      <c r="B5" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B6" t="s">
         <v>794</v>
-      </c>
-      <c r="B6" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B7" t="s">
         <v>796</v>
-      </c>
-      <c r="B7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B8" t="s">
         <v>798</v>
-      </c>
-      <c r="B8" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" t="s">
         <v>800</v>
-      </c>
-      <c r="B9" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10" t="s">
         <v>802</v>
-      </c>
-      <c r="C10" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>803</v>
+      </c>
+      <c r="B11" t="s">
         <v>804</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>805</v>
-      </c>
-      <c r="C11" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>806</v>
+      </c>
+      <c r="B12" t="s">
         <v>807</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>808</v>
-      </c>
-      <c r="C12" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>809</v>
+      </c>
+      <c r="B13" t="s">
         <v>810</v>
-      </c>
-      <c r="B13" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B14" t="s">
+        <v>810</v>
+      </c>
+      <c r="C14" t="s">
         <v>812</v>
-      </c>
-      <c r="B14" t="s">
-        <v>811</v>
-      </c>
-      <c r="C14" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B15" t="s">
         <v>814</v>
-      </c>
-      <c r="B15" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>815</v>
+      </c>
+      <c r="B16" t="s">
         <v>816</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>817</v>
-      </c>
-      <c r="C16" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>818</v>
+      </c>
+      <c r="B17" t="s">
         <v>819</v>
-      </c>
-      <c r="B17" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>820</v>
+      </c>
+      <c r="B18" t="s">
         <v>821</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>822</v>
-      </c>
-      <c r="C18" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" t="s">
         <v>824</v>
-      </c>
-      <c r="B19" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>825</v>
+      </c>
+      <c r="B20" t="s">
         <v>826</v>
-      </c>
-      <c r="B20" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>827</v>
+      </c>
+      <c r="B21" t="s">
         <v>828</v>
-      </c>
-      <c r="B21" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>829</v>
+      </c>
+      <c r="B22" t="s">
         <v>830</v>
-      </c>
-      <c r="B22" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B23" t="s">
         <v>832</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>833</v>
-      </c>
-      <c r="C23" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>834</v>
+      </c>
+      <c r="B24" t="s">
         <v>835</v>
-      </c>
-      <c r="B24" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>836</v>
+      </c>
+      <c r="B25" t="s">
         <v>837</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>838</v>
-      </c>
-      <c r="C25" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>840</v>
+      </c>
+      <c r="B27" t="s">
         <v>841</v>
-      </c>
-      <c r="B27" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C28" t="s">
         <v>882</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C28" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C29" t="s">
         <v>879</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="C29" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C30" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C35" t="s">
         <v>876</v>
-      </c>
-      <c r="C35" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C36" t="s">
         <v>874</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C36" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" t="s">
         <v>887</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C37" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B39" t="s">
         <v>969</v>
-      </c>
-      <c r="B39" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>972</v>
+      </c>
+      <c r="B41" t="s">
         <v>973</v>
-      </c>
-      <c r="B41" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B42" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B43" t="s">
         <v>983</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>984</v>
-      </c>
-      <c r="C43" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B44" t="s">
         <v>986</v>
-      </c>
-      <c r="B44" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B45" t="s">
         <v>1009</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B46" t="s">
         <v>1038</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B47" t="s">
         <v>1040</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B48" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B49" t="s">
         <v>1059</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B50" t="s">
         <v>1081</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B51" t="s">
         <v>1085</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B52" t="s">
         <v>1087</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B53" t="s">
         <v>1097</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B54" t="s">
         <v>1099</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B55" t="s">
         <v>1105</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B56" t="s">
         <v>1107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B57" t="s">
         <v>1109</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B58" t="s">
         <v>1111</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B59" t="s">
         <v>1116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B60" t="s">
         <v>1120</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>1121</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B61" t="s">
         <v>1127</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B62" t="s">
         <v>1131</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>1132</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B63" t="s">
         <v>1136</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B64" t="s">
         <v>1145</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B65" t="s">
         <v>1152</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B66" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B67" t="s">
         <v>1168</v>
       </c>
-      <c r="B67" t="s">
-        <v>1169</v>
-      </c>
       <c r="C67" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B68" t="s">
         <v>1170</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B69" t="s">
         <v>1174</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B70" t="s">
         <v>1176</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>1177</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +8958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8969,18 +8969,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B1" t="s">
         <v>1123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B2" t="s">
         <v>1134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1135</v>
       </c>
     </row>
   </sheetData>
@@ -8989,7 +8989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9015,64 +9015,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" t="s">
         <v>789</v>
-      </c>
-      <c r="B2" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B3" t="s">
         <v>994</v>
-      </c>
-      <c r="B3" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4" t="s">
         <v>998</v>
-      </c>
-      <c r="B4" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B5" t="s">
         <v>1000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
         <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" t="s">
         <v>1034</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B8" t="s">
         <v>1195</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>1196</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1197</v>
       </c>
     </row>
   </sheetData>
@@ -9081,7 +9081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -9108,384 +9108,384 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B2" t="s">
         <v>844</v>
-      </c>
-      <c r="B2" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" t="s">
         <v>846</v>
-      </c>
-      <c r="B3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B4" t="s">
         <v>848</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>849</v>
-      </c>
-      <c r="C4" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B5" t="s">
         <v>851</v>
-      </c>
-      <c r="B5" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B6" t="s">
         <v>853</v>
-      </c>
-      <c r="B6" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>854</v>
+      </c>
+      <c r="B7" t="s">
         <v>855</v>
-      </c>
-      <c r="B7" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>856</v>
+      </c>
+      <c r="B8" t="s">
         <v>857</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>858</v>
-      </c>
-      <c r="C8" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B9" t="s">
         <v>975</v>
-      </c>
-      <c r="B9" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>995</v>
+      </c>
+      <c r="B11" t="s">
         <v>996</v>
-      </c>
-      <c r="B11" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
         <v>1011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
         <v>1013</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B14" t="s">
         <v>1017</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>1018</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B15" t="s">
         <v>1023</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>1024</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B16" t="s">
         <v>1026</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B17" t="s">
         <v>1028</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>1029</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B18" t="s">
         <v>1031</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>1032</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B19" t="s">
         <v>1036</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B20" t="s">
         <v>1047</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B21" t="s">
         <v>1050</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B22" t="s">
         <v>1052</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B23" t="s">
         <v>1054</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B24" t="s">
         <v>1056</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>1057</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B25" t="s">
         <v>1079</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B26" t="s">
         <v>1083</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B27" t="s">
         <v>1095</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B28" t="s">
         <v>1125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B29" t="s">
         <v>1129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B30" t="s">
         <v>1138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B31" t="s">
         <v>1140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B32" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B33" t="s">
         <v>1143</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B34" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B35" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B36" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B37" t="s">
         <v>1154</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B38" t="s">
         <v>1161</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B39" t="s">
         <v>1163</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B40" t="s">
         <v>1165</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>1166</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B41" t="s">
         <v>1172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B42" t="s">
         <v>1187</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B43" t="s">
         <v>1189</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B44" t="s">
         <v>1192</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>1193</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B45" t="s">
         <v>1198</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>1199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1200</v>
       </c>
     </row>
   </sheetData>
